--- a/数据整理/stocks/港股/01186-中国铁建.xlsx
+++ b/数据整理/stocks/港股/01186-中国铁建.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>75.25</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.08</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -566,26 +596,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004316</t>
+          <t>004249</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.36</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -594,25 +634,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004317</t>
+          <t>004316</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>90.36</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.09</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -622,25 +672,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004249</t>
+          <t>004393</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>安信中国制造2025沪港深灵活配置混合</t>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>80.42</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>76.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -650,26 +710,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004393</t>
+          <t>004317</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>安信合作创新主题沪港深灵活配置混合</t>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>76.71</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -688,15 +758,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>79.88</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>4.15</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01186-中国铁建.xlsx
+++ b/数据整理/stocks/港股/01186-中国铁建.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5572</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1878</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01186-中国铁建.xlsx
+++ b/数据整理/stocks/港股/01186-中国铁建.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1106,4 +1107,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6165</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2351</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01186-中国铁建.xlsx
+++ b/数据整理/stocks/港股/01186-中国铁建.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1353,4 +1354,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01186-中国铁建.xlsx
+++ b/数据整理/stocks/港股/01186-中国铁建.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1362,7 +1363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1373,17 +1374,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1393,14 +1414,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6544</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1409,14 +1452,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.92</v>
       </c>
     </row>
     <row r="4">
@@ -1425,14 +1490,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.08</v>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1441,13 +1528,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01186-中国铁建.xlsx
+++ b/数据整理/stocks/港股/01186-中国铁建.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1609,7 +1610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1620,17 +1621,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1640,14 +1661,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.82</v>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1656,14 +1699,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1672,14 +1737,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.92</v>
       </c>
     </row>
     <row r="5">
@@ -1688,14 +1775,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.08</v>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1704,13 +1813,243 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01186-中国铁建.xlsx
+++ b/数据整理/stocks/港股/01186-中国铁建.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1932,7 +1933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1943,17 +1944,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1963,14 +1984,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4254</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1979,14 +2022,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.82</v>
+          <t>014772</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰红利价值一年持有混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2628</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1995,14 +2060,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
+          <t>014771</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰红利优选一年持有混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2280</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2011,14 +2098,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.92</v>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2027,14 +2136,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.08</v>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -2043,13 +2174,297 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01186-中国铁建.xlsx
+++ b/数据整理/stocks/港股/01186-中国铁建.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,91 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006477</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中邮沪港深精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>75.25</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -551,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -602,32 +656,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004249</t>
+          <t>010728</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>安信中国制造2025沪港深灵活配置混合</t>
+          <t>中泰兴诚价值一年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.42</t>
+          <t>88.64</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0298</t>
+          <t>0.4254</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -640,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004316</t>
+          <t>014772</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+          <t>中泰红利价值一年持有混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.36</t>
+          <t>93.11</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0192</t>
+          <t>0.2628</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -678,32 +732,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004393</t>
+          <t>014771</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>安信合作创新主题沪港深灵活配置混合</t>
+          <t>中泰红利优选一年持有混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76.71</t>
+          <t>93.33</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0144</t>
+          <t>0.2280</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -716,36 +770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004317</t>
+          <t>010729</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+          <t>中泰兴诚价值一年持有期混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.36</t>
+          <t>88.64</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0096</t>
+          <t>0.0716</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -754,36 +808,188 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006477</t>
+          <t>004249</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中邮沪港深精选混合</t>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>0.06</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>79.88</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -818,7 +1024,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -848,36 +1054,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010728</t>
+          <t>004249</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中泰兴诚价值一年持有期混合A</t>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.28</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.97</t>
+          <t>89.89</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5572</t>
+          <t>0.0242</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -886,36 +1092,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>167508</t>
+          <t>007751</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安信价值发现两年定期开放混合（LOF）</t>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.20</t>
+          <t>91.29</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1878</t>
+          <t>0.0183</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -924,36 +1130,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010729</t>
+          <t>008861</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中泰兴诚价值一年持有期混合C</t>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>79.97</t>
+          <t>77.31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1018</t>
+          <t>0.0139</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -962,32 +1168,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004249</t>
+          <t>161124</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>安信中国制造2025沪港深灵活配置混合</t>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>82.31</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0312</t>
+          <t>0.0037</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1000,36 +1206,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004393</t>
+          <t>010093</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>安信合作创新主题沪港深灵活配置混合</t>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>85.47</t>
+          <t>77.31</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0187</t>
+          <t>0.0030</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1038,36 +1244,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005576</t>
+          <t>007760</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华泰柏瑞新金融地产灵活配置混合</t>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>91.29</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0167</t>
+          <t>0.0013</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1076,36 +1282,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006477</t>
+          <t>006263</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中邮沪港深精选混合</t>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>82.53</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0008</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1140,7 +1346,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1180,22 +1386,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.43</t>
+          <t>13.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.83</t>
+          <t>84.67</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6165</t>
+          <t>0.6544</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1208,36 +1414,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>167508</t>
+          <t>010729</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安信价值发现两年定期开放混合（LOF）</t>
+          <t>中泰兴诚价值一年持有期混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.00</t>
+          <t>84.67</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2351</t>
+          <t>0.1186</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1246,32 +1452,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010729</t>
+          <t>004249</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中泰兴诚价值一年持有期混合C</t>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.83</t>
+          <t>89.99</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1131</t>
+          <t>0.0283</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1284,36 +1490,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004249</t>
+          <t>007751</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>安信中国制造2025沪港深灵活配置混合</t>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.31</t>
+          <t>91.09</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0319</t>
+          <t>0.0170</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1322,36 +1528,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006477</t>
+          <t>007760</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中邮沪港深精选混合</t>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>77.99</t>
+          <t>91.09</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0027</t>
+          <t>0.0012</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1386,7 +1592,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1426,22 +1632,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.30</t>
+          <t>12.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.67</t>
+          <t>82.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6544</t>
+          <t>0.6165</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1454,36 +1660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010729</t>
+          <t>167508</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中泰兴诚价值一年持有期混合C</t>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.67</t>
+          <t>90.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1186</t>
+          <t>0.2351</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1492,32 +1698,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004249</t>
+          <t>010729</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>安信中国制造2025沪港深灵活配置混合</t>
+          <t>中泰兴诚价值一年持有期混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.99</t>
+          <t>82.83</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0283</t>
+          <t>0.1131</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1530,36 +1736,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007751</t>
+          <t>004249</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.09</t>
+          <t>89.31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0170</t>
+          <t>0.0319</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1568,36 +1774,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007760</t>
+          <t>006477</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+          <t>中邮沪港深精选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.09</t>
+          <t>77.99</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0012</t>
+          <t>0.0027</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1632,7 +1838,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1662,36 +1868,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004249</t>
+          <t>010728</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>安信中国制造2025沪港深灵活配置混合</t>
+          <t>中泰兴诚价值一年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>11.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.89</t>
+          <t>79.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0242</t>
+          <t>0.5572</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1700,36 +1906,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007751</t>
+          <t>167508</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.29</t>
+          <t>84.20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0183</t>
+          <t>0.1878</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1738,36 +1944,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008861</t>
+          <t>010729</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>西部利得港股通新机遇灵活配置混合A</t>
+          <t>中泰兴诚价值一年持有期混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>77.31</t>
+          <t>79.97</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0139</t>
+          <t>0.1018</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1776,32 +1982,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161124</t>
+          <t>004249</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.62</t>
+          <t>82.31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0037</t>
+          <t>0.0312</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1814,36 +2020,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010093</t>
+          <t>004393</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>西部利得港股通新机遇灵活配置混合C</t>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>77.31</t>
+          <t>85.47</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0030</t>
+          <t>0.0187</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1852,36 +2058,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007760</t>
+          <t>005576</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.29</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.0167</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1890,36 +2096,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006263</t>
+          <t>006477</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+          <t>中邮沪港深精选混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.62</t>
+          <t>82.53</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0008</t>
+          <t>0.0023</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1933,7 +2139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1954,7 +2160,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1984,32 +2190,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010728</t>
+          <t>004249</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中泰兴诚价值一年持有期混合A</t>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.64</t>
+          <t>80.42</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4254</t>
+          <t>0.0298</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2022,36 +2228,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>014772</t>
+          <t>004316</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中泰红利价值一年持有混合</t>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.11</t>
+          <t>90.36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2628</t>
+          <t>0.0192</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2060,32 +2266,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>014771</t>
+          <t>004393</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中泰红利优选一年持有混合</t>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.33</t>
+          <t>76.71</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2280</t>
+          <t>0.0144</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2098,36 +2304,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010729</t>
+          <t>004317</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中泰兴诚价值一年持有期混合C</t>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.64</t>
+          <t>90.36</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0716</t>
+          <t>0.0096</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2136,188 +2342,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004249</t>
+          <t>006477</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>安信中国制造2025沪港深灵活配置混合</t>
+          <t>中邮沪港深精选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.16</t>
+          <t>79.88</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0234</t>
+          <t>0.0025</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004316</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.19</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0204</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004317</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.19</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0144</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>161124</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006263</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2331,144 +2385,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/01186-中国铁建.xlsx
+++ b/数据整理/stocks/港股/01186-中国铁建.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>1.05</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.82</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.64</t>
+          <t>89.26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4254</t>
+          <t>0.3308</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -704,22 +721,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.11</t>
+          <t>93.55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2628</t>
+          <t>0.2409</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -742,22 +759,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.33</t>
+          <t>93.69</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2280</t>
+          <t>0.2179</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -780,26 +797,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.64</t>
+          <t>89.26</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0716</t>
+          <t>0.0634</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -808,36 +825,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004249</t>
+          <t>004317</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>安信中国制造2025沪港深灵活配置混合</t>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.16</t>
+          <t>70.17</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0234</t>
+          <t>0.0533</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -856,26 +873,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.19</t>
+          <t>70.17</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0204</t>
+          <t>0.0527</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -884,36 +901,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004317</t>
+          <t>004249</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+          <t>安信中国制造混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.19</t>
+          <t>89.55</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0144</t>
+          <t>0.0197</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -932,26 +949,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>91.61</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0041</t>
+          <t>0.0027</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -970,26 +987,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>91.61</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0008</t>
+          <t>0.0007</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -998,6 +1015,404 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4254</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014772</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰红利价值一年持有混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2628</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014771</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰红利优选一年持有混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2280</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1312,252 +1727,6 @@
       </c>
       <c r="H8" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010728</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中泰兴诚价值一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.30</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>84.67</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6544</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010729</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中泰兴诚价值一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>84.67</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1186</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004249</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>安信中国制造2025沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.99</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0283</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007751</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.09</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0170</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007760</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.09</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1592,7 +1761,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1632,22 +1801,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.43</t>
+          <t>13.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.83</t>
+          <t>84.67</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6165</t>
+          <t>0.6544</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1660,36 +1829,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>167508</t>
+          <t>010729</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安信价值发现两年定期开放混合（LOF）</t>
+          <t>中泰兴诚价值一年持有期混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.00</t>
+          <t>84.67</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2351</t>
+          <t>0.1186</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1698,32 +1867,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010729</t>
+          <t>004249</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中泰兴诚价值一年持有期混合C</t>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.83</t>
+          <t>89.99</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1131</t>
+          <t>0.0283</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1736,36 +1905,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004249</t>
+          <t>007751</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>安信中国制造2025沪港深灵活配置混合</t>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.31</t>
+          <t>91.09</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0319</t>
+          <t>0.0170</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1774,36 +1943,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006477</t>
+          <t>007760</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中邮沪港深精选混合</t>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>77.99</t>
+          <t>91.09</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0027</t>
+          <t>0.0012</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1812,6 +1981,252 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6165</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2351</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2133,7 +2548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2379,7 +2794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/01186-中国铁建.xlsx
+++ b/数据整理/stocks/港股/01186-中国铁建.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0.98</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>1.05</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.82</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,128 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -622,7 +733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,36 +784,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010728</t>
+          <t>014772</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中泰兴诚价值一年持有期混合A</t>
+          <t>中泰红利价值一年持有混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.26</t>
+          <t>94.16</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3308</t>
+          <t>0.2497</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -711,32 +822,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>014772</t>
+          <t>014771</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中泰红利价值一年持有混合</t>
+          <t>中泰红利优选一年持有混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.55</t>
+          <t>94.22</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2409</t>
+          <t>0.2473</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -749,36 +860,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>014771</t>
+          <t>001583</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中泰红利优选一年持有混合</t>
+          <t>安信新常态沪港深精选股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>92.15</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2179</t>
+          <t>0.1727</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -787,32 +898,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010729</t>
+          <t>011905</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中泰兴诚价值一年持有期混合C</t>
+          <t>安信价值启航混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.26</t>
+          <t>93.48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0634</t>
+          <t>0.1397</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -825,36 +936,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004317</t>
+          <t>011726</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+          <t>安信新常态沪港深精选股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>70.17</t>
+          <t>92.15</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0533</t>
+          <t>0.1080</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -863,36 +974,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004316</t>
+          <t>008477</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+          <t>安信价值驱动三年持有期混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>70.17</t>
+          <t>92.30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0527</t>
+          <t>0.0883</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -901,36 +1012,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004249</t>
+          <t>007751</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>安信中国制造混合</t>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.55</t>
+          <t>91.50</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0197</t>
+          <t>0.0163</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -939,36 +1050,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>161124</t>
+          <t>011906</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+          <t>安信价值启航混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>93.48</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0027</t>
+          <t>0.0127</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -977,36 +1088,188 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>013182</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>69.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013181</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>69.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>006263</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>0.05</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.61</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>0.0007</t>
         </is>
       </c>
-      <c r="H10" t="n">
-        <v>7</v>
+      <c r="H14" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1081,26 +1344,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.64</t>
+          <t>89.26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4254</t>
+          <t>0.3308</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1119,22 +1382,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.11</t>
+          <t>93.55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2628</t>
+          <t>0.2409</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1157,22 +1420,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.33</t>
+          <t>93.69</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2280</t>
+          <t>0.2179</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1195,26 +1458,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.64</t>
+          <t>89.26</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0716</t>
+          <t>0.0634</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1223,36 +1486,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004249</t>
+          <t>004317</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>安信中国制造2025沪港深灵活配置混合</t>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.16</t>
+          <t>70.17</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0234</t>
+          <t>0.0533</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1271,26 +1534,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.19</t>
+          <t>70.17</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0204</t>
+          <t>0.0527</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1299,36 +1562,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004317</t>
+          <t>004249</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+          <t>安信中国制造混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.19</t>
+          <t>89.55</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0144</t>
+          <t>0.0197</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1347,26 +1610,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>91.61</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0041</t>
+          <t>0.0027</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1385,26 +1648,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>91.61</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0008</t>
+          <t>0.0007</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1413,6 +1676,404 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4254</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014772</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰红利价值一年持有混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2628</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014771</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰红利优选一年持有混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2280</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1727,252 +2388,6 @@
       </c>
       <c r="H8" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010728</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中泰兴诚价值一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.30</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>84.67</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6544</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010729</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中泰兴诚价值一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>84.67</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1186</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004249</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>安信中国制造2025沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.99</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0283</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007751</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.09</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0170</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007760</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.09</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2007,7 +2422,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2047,22 +2462,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.43</t>
+          <t>13.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.83</t>
+          <t>84.67</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6165</t>
+          <t>0.6544</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2075,36 +2490,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>167508</t>
+          <t>010729</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安信价值发现两年定期开放混合（LOF）</t>
+          <t>中泰兴诚价值一年持有期混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.00</t>
+          <t>84.67</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2351</t>
+          <t>0.1186</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2113,32 +2528,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010729</t>
+          <t>004249</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中泰兴诚价值一年持有期混合C</t>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.83</t>
+          <t>89.99</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1131</t>
+          <t>0.0283</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2151,36 +2566,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004249</t>
+          <t>007751</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>安信中国制造2025沪港深灵活配置混合</t>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.31</t>
+          <t>91.09</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0319</t>
+          <t>0.0170</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2189,36 +2604,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006477</t>
+          <t>007760</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中邮沪港深精选混合</t>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>77.99</t>
+          <t>91.09</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0027</t>
+          <t>0.0012</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2227,6 +2642,252 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6165</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2351</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2548,7 +3209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2792,98 +3453,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006477</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中邮沪港深精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>75.25</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>